--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_210.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_210.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32177-d84143-Reviews-DoubleTree_by_Hilton_Hotel_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>637</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>656</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-DoubleTree-By-Hilton-Carson.h12915.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_210.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_210.xlsx
@@ -4816,7 +4816,7 @@
     <t xml:space="preserve">I enjoyed my stay at the Double Tree Carson. This hotel is conveniently located next to the 405 freeway and there is a lot of shopping and restaurants in the area. The staff was very friendly from the front desk personnel, bartenders, maids and the restaurant staff. Everything was reasonably priced at the hotel and the parking is free. </t>
   </si>
   <si>
-    <t>ldfalco</t>
+    <t>Joey F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d84143-r299504164-DoubleTree_by_Hilton_Hotel_Carson-Carson_California.html</t>
@@ -9211,7 +9211,7 @@
         <v>28279</v>
       </c>
       <c r="B4" t="n">
-        <v>138557</v>
+        <v>169649</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -9276,7 +9276,7 @@
         <v>28279</v>
       </c>
       <c r="B5" t="n">
-        <v>138558</v>
+        <v>169650</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -9351,7 +9351,7 @@
         <v>28279</v>
       </c>
       <c r="B6" t="n">
-        <v>138559</v>
+        <v>169651</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
@@ -9501,7 +9501,7 @@
         <v>28279</v>
       </c>
       <c r="B8" t="n">
-        <v>138560</v>
+        <v>169652</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>
@@ -9566,7 +9566,7 @@
         <v>28279</v>
       </c>
       <c r="B9" t="n">
-        <v>138561</v>
+        <v>169653</v>
       </c>
       <c r="C9" t="s">
         <v>109</v>
@@ -9641,7 +9641,7 @@
         <v>28279</v>
       </c>
       <c r="B10" t="n">
-        <v>138562</v>
+        <v>169654</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
@@ -9791,7 +9791,7 @@
         <v>28279</v>
       </c>
       <c r="B12" t="n">
-        <v>138563</v>
+        <v>169655</v>
       </c>
       <c r="C12" t="s">
         <v>134</v>
@@ -9866,7 +9866,7 @@
         <v>28279</v>
       </c>
       <c r="B13" t="n">
-        <v>138564</v>
+        <v>169656</v>
       </c>
       <c r="C13" t="s">
         <v>141</v>
@@ -9941,7 +9941,7 @@
         <v>28279</v>
       </c>
       <c r="B14" t="n">
-        <v>138565</v>
+        <v>169657</v>
       </c>
       <c r="C14" t="s">
         <v>150</v>
@@ -10006,7 +10006,7 @@
         <v>28279</v>
       </c>
       <c r="B15" t="n">
-        <v>138566</v>
+        <v>169658</v>
       </c>
       <c r="C15" t="s">
         <v>158</v>
@@ -10081,7 +10081,7 @@
         <v>28279</v>
       </c>
       <c r="B16" t="n">
-        <v>138567</v>
+        <v>169659</v>
       </c>
       <c r="C16" t="s">
         <v>167</v>
@@ -10146,7 +10146,7 @@
         <v>28279</v>
       </c>
       <c r="B17" t="n">
-        <v>138568</v>
+        <v>169660</v>
       </c>
       <c r="C17" t="s">
         <v>176</v>
@@ -10217,7 +10217,7 @@
         <v>28279</v>
       </c>
       <c r="B18" t="n">
-        <v>138569</v>
+        <v>169661</v>
       </c>
       <c r="C18" t="s">
         <v>186</v>
@@ -10436,7 +10436,7 @@
         <v>28279</v>
       </c>
       <c r="B21" t="n">
-        <v>138570</v>
+        <v>169662</v>
       </c>
       <c r="C21" t="s">
         <v>213</v>
@@ -10511,7 +10511,7 @@
         <v>28279</v>
       </c>
       <c r="B22" t="n">
-        <v>138571</v>
+        <v>169663</v>
       </c>
       <c r="C22" t="s">
         <v>222</v>
@@ -10572,7 +10572,7 @@
         <v>28279</v>
       </c>
       <c r="B23" t="n">
-        <v>138572</v>
+        <v>169664</v>
       </c>
       <c r="C23" t="s">
         <v>229</v>
@@ -10647,7 +10647,7 @@
         <v>28279</v>
       </c>
       <c r="B24" t="n">
-        <v>138573</v>
+        <v>169665</v>
       </c>
       <c r="C24" t="s">
         <v>238</v>
@@ -10722,7 +10722,7 @@
         <v>28279</v>
       </c>
       <c r="B25" t="n">
-        <v>138574</v>
+        <v>169666</v>
       </c>
       <c r="C25" t="s">
         <v>248</v>
@@ -10872,7 +10872,7 @@
         <v>28279</v>
       </c>
       <c r="B27" t="n">
-        <v>138575</v>
+        <v>169667</v>
       </c>
       <c r="C27" t="s">
         <v>266</v>
@@ -10947,7 +10947,7 @@
         <v>28279</v>
       </c>
       <c r="B28" t="n">
-        <v>138576</v>
+        <v>169668</v>
       </c>
       <c r="C28" t="s">
         <v>276</v>
@@ -11016,7 +11016,7 @@
         <v>28279</v>
       </c>
       <c r="B29" t="n">
-        <v>138577</v>
+        <v>169669</v>
       </c>
       <c r="C29" t="s">
         <v>283</v>
@@ -11087,7 +11087,7 @@
         <v>28279</v>
       </c>
       <c r="B30" t="n">
-        <v>138578</v>
+        <v>169670</v>
       </c>
       <c r="C30" t="s">
         <v>293</v>
@@ -11312,7 +11312,7 @@
         <v>28279</v>
       </c>
       <c r="B33" t="n">
-        <v>138579</v>
+        <v>169671</v>
       </c>
       <c r="C33" t="s">
         <v>318</v>
@@ -11387,7 +11387,7 @@
         <v>28279</v>
       </c>
       <c r="B34" t="n">
-        <v>138580</v>
+        <v>169672</v>
       </c>
       <c r="C34" t="s">
         <v>324</v>
@@ -11462,7 +11462,7 @@
         <v>28279</v>
       </c>
       <c r="B35" t="n">
-        <v>138581</v>
+        <v>169673</v>
       </c>
       <c r="C35" t="s">
         <v>333</v>
@@ -11537,7 +11537,7 @@
         <v>28279</v>
       </c>
       <c r="B36" t="n">
-        <v>138582</v>
+        <v>169674</v>
       </c>
       <c r="C36" t="s">
         <v>342</v>
@@ -11612,7 +11612,7 @@
         <v>28279</v>
       </c>
       <c r="B37" t="n">
-        <v>138583</v>
+        <v>169675</v>
       </c>
       <c r="C37" t="s">
         <v>351</v>
@@ -11687,7 +11687,7 @@
         <v>28279</v>
       </c>
       <c r="B38" t="n">
-        <v>138584</v>
+        <v>169676</v>
       </c>
       <c r="C38" t="s">
         <v>360</v>
@@ -11752,7 +11752,7 @@
         <v>28279</v>
       </c>
       <c r="B39" t="n">
-        <v>138585</v>
+        <v>169677</v>
       </c>
       <c r="C39" t="s">
         <v>369</v>
@@ -11827,7 +11827,7 @@
         <v>28279</v>
       </c>
       <c r="B40" t="n">
-        <v>138586</v>
+        <v>169678</v>
       </c>
       <c r="C40" t="s">
         <v>378</v>
@@ -11898,7 +11898,7 @@
         <v>28279</v>
       </c>
       <c r="B41" t="n">
-        <v>138587</v>
+        <v>169679</v>
       </c>
       <c r="C41" t="s">
         <v>388</v>
@@ -11973,7 +11973,7 @@
         <v>28279</v>
       </c>
       <c r="B42" t="n">
-        <v>138588</v>
+        <v>169680</v>
       </c>
       <c r="C42" t="s">
         <v>398</v>
@@ -12123,7 +12123,7 @@
         <v>28279</v>
       </c>
       <c r="B44" t="n">
-        <v>138589</v>
+        <v>169681</v>
       </c>
       <c r="C44" t="s">
         <v>413</v>
@@ -12198,7 +12198,7 @@
         <v>28279</v>
       </c>
       <c r="B45" t="n">
-        <v>138590</v>
+        <v>169682</v>
       </c>
       <c r="C45" t="s">
         <v>422</v>
@@ -12267,7 +12267,7 @@
         <v>28279</v>
       </c>
       <c r="B46" t="n">
-        <v>138591</v>
+        <v>169683</v>
       </c>
       <c r="C46" t="s">
         <v>431</v>
@@ -12342,7 +12342,7 @@
         <v>28279</v>
       </c>
       <c r="B47" t="n">
-        <v>138592</v>
+        <v>138568</v>
       </c>
       <c r="C47" t="s">
         <v>440</v>
@@ -12492,7 +12492,7 @@
         <v>28279</v>
       </c>
       <c r="B49" t="n">
-        <v>138593</v>
+        <v>169684</v>
       </c>
       <c r="C49" t="s">
         <v>458</v>
@@ -12567,7 +12567,7 @@
         <v>28279</v>
       </c>
       <c r="B50" t="n">
-        <v>138594</v>
+        <v>169685</v>
       </c>
       <c r="C50" t="s">
         <v>464</v>
@@ -12642,7 +12642,7 @@
         <v>28279</v>
       </c>
       <c r="B51" t="n">
-        <v>138595</v>
+        <v>169686</v>
       </c>
       <c r="C51" t="s">
         <v>473</v>
@@ -12717,7 +12717,7 @@
         <v>28279</v>
       </c>
       <c r="B52" t="n">
-        <v>138596</v>
+        <v>169687</v>
       </c>
       <c r="C52" t="s">
         <v>482</v>
@@ -12792,7 +12792,7 @@
         <v>28279</v>
       </c>
       <c r="B53" t="n">
-        <v>138597</v>
+        <v>169688</v>
       </c>
       <c r="C53" t="s">
         <v>491</v>
@@ -12867,7 +12867,7 @@
         <v>28279</v>
       </c>
       <c r="B54" t="n">
-        <v>138598</v>
+        <v>169689</v>
       </c>
       <c r="C54" t="s">
         <v>500</v>
@@ -12942,7 +12942,7 @@
         <v>28279</v>
       </c>
       <c r="B55" t="n">
-        <v>138599</v>
+        <v>169690</v>
       </c>
       <c r="C55" t="s">
         <v>508</v>
@@ -13017,7 +13017,7 @@
         <v>28279</v>
       </c>
       <c r="B56" t="n">
-        <v>138600</v>
+        <v>169691</v>
       </c>
       <c r="C56" t="s">
         <v>516</v>
@@ -13092,7 +13092,7 @@
         <v>28279</v>
       </c>
       <c r="B57" t="n">
-        <v>138601</v>
+        <v>169692</v>
       </c>
       <c r="C57" t="s">
         <v>526</v>
@@ -13242,7 +13242,7 @@
         <v>28279</v>
       </c>
       <c r="B59" t="n">
-        <v>138602</v>
+        <v>169693</v>
       </c>
       <c r="C59" t="s">
         <v>542</v>
@@ -13317,7 +13317,7 @@
         <v>28279</v>
       </c>
       <c r="B60" t="n">
-        <v>138603</v>
+        <v>169694</v>
       </c>
       <c r="C60" t="s">
         <v>551</v>
@@ -13392,7 +13392,7 @@
         <v>28279</v>
       </c>
       <c r="B61" t="n">
-        <v>138604</v>
+        <v>169695</v>
       </c>
       <c r="C61" t="s">
         <v>557</v>
@@ -13467,7 +13467,7 @@
         <v>28279</v>
       </c>
       <c r="B62" t="n">
-        <v>138605</v>
+        <v>169696</v>
       </c>
       <c r="C62" t="s">
         <v>566</v>
@@ -13542,7 +13542,7 @@
         <v>28279</v>
       </c>
       <c r="B63" t="n">
-        <v>138606</v>
+        <v>169697</v>
       </c>
       <c r="C63" t="s">
         <v>576</v>
@@ -13617,7 +13617,7 @@
         <v>28279</v>
       </c>
       <c r="B64" t="n">
-        <v>138607</v>
+        <v>169698</v>
       </c>
       <c r="C64" t="s">
         <v>584</v>
@@ -13678,7 +13678,7 @@
         <v>28279</v>
       </c>
       <c r="B65" t="n">
-        <v>138608</v>
+        <v>169699</v>
       </c>
       <c r="C65" t="s">
         <v>593</v>
@@ -13753,7 +13753,7 @@
         <v>28279</v>
       </c>
       <c r="B66" t="n">
-        <v>138609</v>
+        <v>169700</v>
       </c>
       <c r="C66" t="s">
         <v>603</v>
@@ -13828,7 +13828,7 @@
         <v>28279</v>
       </c>
       <c r="B67" t="n">
-        <v>138610</v>
+        <v>169701</v>
       </c>
       <c r="C67" t="s">
         <v>610</v>
@@ -13903,7 +13903,7 @@
         <v>28279</v>
       </c>
       <c r="B68" t="n">
-        <v>138611</v>
+        <v>169702</v>
       </c>
       <c r="C68" t="s">
         <v>619</v>
@@ -13978,7 +13978,7 @@
         <v>28279</v>
       </c>
       <c r="B69" t="n">
-        <v>138612</v>
+        <v>169703</v>
       </c>
       <c r="C69" t="s">
         <v>628</v>
@@ -14053,7 +14053,7 @@
         <v>28279</v>
       </c>
       <c r="B70" t="n">
-        <v>138613</v>
+        <v>169704</v>
       </c>
       <c r="C70" t="s">
         <v>635</v>
@@ -14128,7 +14128,7 @@
         <v>28279</v>
       </c>
       <c r="B71" t="n">
-        <v>138614</v>
+        <v>169705</v>
       </c>
       <c r="C71" t="s">
         <v>644</v>
@@ -14199,7 +14199,7 @@
         <v>28279</v>
       </c>
       <c r="B72" t="n">
-        <v>138591</v>
+        <v>138568</v>
       </c>
       <c r="C72" t="s">
         <v>440</v>
@@ -14274,7 +14274,7 @@
         <v>28279</v>
       </c>
       <c r="B73" t="n">
-        <v>138615</v>
+        <v>169706</v>
       </c>
       <c r="C73" t="s">
         <v>661</v>
@@ -14349,7 +14349,7 @@
         <v>28279</v>
       </c>
       <c r="B74" t="n">
-        <v>138616</v>
+        <v>169707</v>
       </c>
       <c r="C74" t="s">
         <v>671</v>
@@ -14414,7 +14414,7 @@
         <v>28279</v>
       </c>
       <c r="B75" t="n">
-        <v>138617</v>
+        <v>169708</v>
       </c>
       <c r="C75" t="s">
         <v>680</v>
@@ -14489,7 +14489,7 @@
         <v>28279</v>
       </c>
       <c r="B76" t="n">
-        <v>138618</v>
+        <v>169709</v>
       </c>
       <c r="C76" t="s">
         <v>688</v>
@@ -14558,7 +14558,7 @@
         <v>28279</v>
       </c>
       <c r="B77" t="n">
-        <v>138619</v>
+        <v>169710</v>
       </c>
       <c r="C77" t="s">
         <v>697</v>
@@ -14633,7 +14633,7 @@
         <v>28279</v>
       </c>
       <c r="B78" t="n">
-        <v>138620</v>
+        <v>169711</v>
       </c>
       <c r="C78" t="s">
         <v>706</v>
@@ -14708,7 +14708,7 @@
         <v>28279</v>
       </c>
       <c r="B79" t="n">
-        <v>138621</v>
+        <v>169712</v>
       </c>
       <c r="C79" t="s">
         <v>716</v>
@@ -14858,7 +14858,7 @@
         <v>28279</v>
       </c>
       <c r="B81" t="n">
-        <v>138622</v>
+        <v>169713</v>
       </c>
       <c r="C81" t="s">
         <v>734</v>
@@ -14933,7 +14933,7 @@
         <v>28279</v>
       </c>
       <c r="B82" t="n">
-        <v>138623</v>
+        <v>169714</v>
       </c>
       <c r="C82" t="s">
         <v>742</v>
@@ -15008,7 +15008,7 @@
         <v>28279</v>
       </c>
       <c r="B83" t="n">
-        <v>138624</v>
+        <v>169715</v>
       </c>
       <c r="C83" t="s">
         <v>751</v>
@@ -15233,7 +15233,7 @@
         <v>28279</v>
       </c>
       <c r="B86" t="n">
-        <v>138625</v>
+        <v>169716</v>
       </c>
       <c r="C86" t="s">
         <v>774</v>
@@ -15302,7 +15302,7 @@
         <v>28279</v>
       </c>
       <c r="B87" t="n">
-        <v>138626</v>
+        <v>169717</v>
       </c>
       <c r="C87" t="s">
         <v>784</v>
@@ -15452,7 +15452,7 @@
         <v>28279</v>
       </c>
       <c r="B89" t="n">
-        <v>138627</v>
+        <v>169718</v>
       </c>
       <c r="C89" t="s">
         <v>800</v>
@@ -15527,7 +15527,7 @@
         <v>28279</v>
       </c>
       <c r="B90" t="n">
-        <v>138628</v>
+        <v>169719</v>
       </c>
       <c r="C90" t="s">
         <v>810</v>
@@ -15602,7 +15602,7 @@
         <v>28279</v>
       </c>
       <c r="B91" t="n">
-        <v>138629</v>
+        <v>169720</v>
       </c>
       <c r="C91" t="s">
         <v>819</v>
@@ -15677,7 +15677,7 @@
         <v>28279</v>
       </c>
       <c r="B92" t="n">
-        <v>138630</v>
+        <v>169721</v>
       </c>
       <c r="C92" t="s">
         <v>825</v>
@@ -15752,7 +15752,7 @@
         <v>28279</v>
       </c>
       <c r="B93" t="n">
-        <v>138631</v>
+        <v>169722</v>
       </c>
       <c r="C93" t="s">
         <v>834</v>
@@ -15827,7 +15827,7 @@
         <v>28279</v>
       </c>
       <c r="B94" t="n">
-        <v>138632</v>
+        <v>169723</v>
       </c>
       <c r="C94" t="s">
         <v>841</v>
@@ -15902,7 +15902,7 @@
         <v>28279</v>
       </c>
       <c r="B95" t="n">
-        <v>138633</v>
+        <v>169724</v>
       </c>
       <c r="C95" t="s">
         <v>846</v>
@@ -16052,7 +16052,7 @@
         <v>28279</v>
       </c>
       <c r="B97" t="n">
-        <v>138634</v>
+        <v>169725</v>
       </c>
       <c r="C97" t="s">
         <v>864</v>
@@ -16127,7 +16127,7 @@
         <v>28279</v>
       </c>
       <c r="B98" t="n">
-        <v>138635</v>
+        <v>169726</v>
       </c>
       <c r="C98" t="s">
         <v>871</v>
@@ -16267,7 +16267,7 @@
         <v>28279</v>
       </c>
       <c r="B100" t="n">
-        <v>138636</v>
+        <v>169727</v>
       </c>
       <c r="C100" t="s">
         <v>889</v>
@@ -16417,7 +16417,7 @@
         <v>28279</v>
       </c>
       <c r="B102" t="n">
-        <v>138637</v>
+        <v>169728</v>
       </c>
       <c r="C102" t="s">
         <v>906</v>
@@ -16492,7 +16492,7 @@
         <v>28279</v>
       </c>
       <c r="B103" t="n">
-        <v>138638</v>
+        <v>138648</v>
       </c>
       <c r="C103" t="s">
         <v>915</v>
@@ -16567,7 +16567,7 @@
         <v>28279</v>
       </c>
       <c r="B104" t="n">
-        <v>138639</v>
+        <v>169729</v>
       </c>
       <c r="C104" t="s">
         <v>921</v>
@@ -16642,7 +16642,7 @@
         <v>28279</v>
       </c>
       <c r="B105" t="n">
-        <v>138640</v>
+        <v>169730</v>
       </c>
       <c r="C105" t="s">
         <v>928</v>
@@ -16867,7 +16867,7 @@
         <v>28279</v>
       </c>
       <c r="B108" t="n">
-        <v>138641</v>
+        <v>169731</v>
       </c>
       <c r="C108" t="s">
         <v>952</v>
@@ -17082,7 +17082,7 @@
         <v>28279</v>
       </c>
       <c r="B111" t="n">
-        <v>138642</v>
+        <v>169732</v>
       </c>
       <c r="C111" t="s">
         <v>978</v>
@@ -17157,7 +17157,7 @@
         <v>28279</v>
       </c>
       <c r="B112" t="n">
-        <v>138643</v>
+        <v>169733</v>
       </c>
       <c r="C112" t="s">
         <v>985</v>
@@ -17232,7 +17232,7 @@
         <v>28279</v>
       </c>
       <c r="B113" t="n">
-        <v>138644</v>
+        <v>169734</v>
       </c>
       <c r="C113" t="s">
         <v>994</v>
@@ -17301,7 +17301,7 @@
         <v>28279</v>
       </c>
       <c r="B114" t="n">
-        <v>138645</v>
+        <v>169735</v>
       </c>
       <c r="C114" t="s">
         <v>1003</v>
@@ -17516,7 +17516,7 @@
         <v>28279</v>
       </c>
       <c r="B117" t="n">
-        <v>138646</v>
+        <v>169736</v>
       </c>
       <c r="C117" t="s">
         <v>1026</v>
@@ -17666,7 +17666,7 @@
         <v>28279</v>
       </c>
       <c r="B119" t="n">
-        <v>138647</v>
+        <v>169737</v>
       </c>
       <c r="C119" t="s">
         <v>1042</v>
@@ -17741,7 +17741,7 @@
         <v>28279</v>
       </c>
       <c r="B120" t="n">
-        <v>138648</v>
+        <v>169738</v>
       </c>
       <c r="C120" t="s">
         <v>1049</v>
@@ -17891,7 +17891,7 @@
         <v>28279</v>
       </c>
       <c r="B122" t="n">
-        <v>138649</v>
+        <v>169739</v>
       </c>
       <c r="C122" t="s">
         <v>1064</v>
@@ -17966,7 +17966,7 @@
         <v>28279</v>
       </c>
       <c r="B123" t="n">
-        <v>138650</v>
+        <v>169740</v>
       </c>
       <c r="C123" t="s">
         <v>1074</v>
@@ -18041,7 +18041,7 @@
         <v>28279</v>
       </c>
       <c r="B124" t="n">
-        <v>138651</v>
+        <v>169741</v>
       </c>
       <c r="C124" t="s">
         <v>1080</v>
@@ -18116,7 +18116,7 @@
         <v>28279</v>
       </c>
       <c r="B125" t="n">
-        <v>138652</v>
+        <v>169742</v>
       </c>
       <c r="C125" t="s">
         <v>1085</v>
@@ -18191,7 +18191,7 @@
         <v>28279</v>
       </c>
       <c r="B126" t="n">
-        <v>138653</v>
+        <v>169743</v>
       </c>
       <c r="C126" t="s">
         <v>1092</v>
@@ -18266,7 +18266,7 @@
         <v>28279</v>
       </c>
       <c r="B127" t="n">
-        <v>138654</v>
+        <v>169744</v>
       </c>
       <c r="C127" t="s">
         <v>1098</v>
@@ -18481,7 +18481,7 @@
         <v>28279</v>
       </c>
       <c r="B130" t="n">
-        <v>138655</v>
+        <v>169745</v>
       </c>
       <c r="C130" t="s">
         <v>1120</v>
@@ -18556,7 +18556,7 @@
         <v>28279</v>
       </c>
       <c r="B131" t="n">
-        <v>138656</v>
+        <v>169746</v>
       </c>
       <c r="C131" t="s">
         <v>1127</v>
@@ -18631,7 +18631,7 @@
         <v>28279</v>
       </c>
       <c r="B132" t="n">
-        <v>138657</v>
+        <v>138676</v>
       </c>
       <c r="C132" t="s">
         <v>1134</v>
@@ -18706,7 +18706,7 @@
         <v>28279</v>
       </c>
       <c r="B133" t="n">
-        <v>138658</v>
+        <v>169747</v>
       </c>
       <c r="C133" t="s">
         <v>1141</v>
@@ -18781,7 +18781,7 @@
         <v>28279</v>
       </c>
       <c r="B134" t="n">
-        <v>138659</v>
+        <v>169748</v>
       </c>
       <c r="C134" t="s">
         <v>1148</v>
@@ -18850,7 +18850,7 @@
         <v>28279</v>
       </c>
       <c r="B135" t="n">
-        <v>138660</v>
+        <v>169749</v>
       </c>
       <c r="C135" t="s">
         <v>1157</v>
@@ -18925,7 +18925,7 @@
         <v>28279</v>
       </c>
       <c r="B136" t="n">
-        <v>138661</v>
+        <v>169750</v>
       </c>
       <c r="C136" t="s">
         <v>1164</v>
@@ -19000,7 +19000,7 @@
         <v>28279</v>
       </c>
       <c r="B137" t="n">
-        <v>138662</v>
+        <v>169751</v>
       </c>
       <c r="C137" t="s">
         <v>1171</v>
@@ -19150,7 +19150,7 @@
         <v>28279</v>
       </c>
       <c r="B139" t="n">
-        <v>138663</v>
+        <v>169752</v>
       </c>
       <c r="C139" t="s">
         <v>1187</v>
@@ -19446,7 +19446,7 @@
         <v>28279</v>
       </c>
       <c r="B143" t="n">
-        <v>138664</v>
+        <v>169753</v>
       </c>
       <c r="C143" t="s">
         <v>1217</v>
@@ -19511,7 +19511,7 @@
         <v>28279</v>
       </c>
       <c r="B144" t="n">
-        <v>138665</v>
+        <v>169754</v>
       </c>
       <c r="C144" t="s">
         <v>1226</v>
@@ -19797,7 +19797,7 @@
         <v>28279</v>
       </c>
       <c r="B148" t="n">
-        <v>138666</v>
+        <v>169755</v>
       </c>
       <c r="C148" t="s">
         <v>1255</v>
@@ -20016,7 +20016,7 @@
         <v>28279</v>
       </c>
       <c r="B151" t="n">
-        <v>138667</v>
+        <v>169756</v>
       </c>
       <c r="C151" t="s">
         <v>1279</v>
@@ -20091,7 +20091,7 @@
         <v>28279</v>
       </c>
       <c r="B152" t="n">
-        <v>138668</v>
+        <v>169757</v>
       </c>
       <c r="C152" t="s">
         <v>1286</v>
@@ -20166,7 +20166,7 @@
         <v>28279</v>
       </c>
       <c r="B153" t="n">
-        <v>138669</v>
+        <v>169758</v>
       </c>
       <c r="C153" t="s">
         <v>1295</v>
@@ -20310,7 +20310,7 @@
         <v>28279</v>
       </c>
       <c r="B155" t="n">
-        <v>138670</v>
+        <v>169759</v>
       </c>
       <c r="C155" t="s">
         <v>1308</v>
@@ -20385,7 +20385,7 @@
         <v>28279</v>
       </c>
       <c r="B156" t="n">
-        <v>138671</v>
+        <v>169760</v>
       </c>
       <c r="C156" t="s">
         <v>1315</v>
@@ -20610,7 +20610,7 @@
         <v>28279</v>
       </c>
       <c r="B159" t="n">
-        <v>138672</v>
+        <v>169761</v>
       </c>
       <c r="C159" t="s">
         <v>1341</v>
@@ -20906,7 +20906,7 @@
         <v>28279</v>
       </c>
       <c r="B163" t="n">
-        <v>138673</v>
+        <v>169762</v>
       </c>
       <c r="C163" t="s">
         <v>1374</v>
@@ -20979,7 +20979,7 @@
         <v>28279</v>
       </c>
       <c r="B164" t="n">
-        <v>138674</v>
+        <v>169763</v>
       </c>
       <c r="C164" t="s">
         <v>1383</v>
@@ -21123,7 +21123,7 @@
         <v>28279</v>
       </c>
       <c r="B166" t="n">
-        <v>138675</v>
+        <v>169764</v>
       </c>
       <c r="C166" t="s">
         <v>1400</v>
@@ -21344,7 +21344,7 @@
         <v>28279</v>
       </c>
       <c r="B169" t="n">
-        <v>138676</v>
+        <v>169765</v>
       </c>
       <c r="C169" t="s">
         <v>1425</v>
@@ -21492,7 +21492,7 @@
         <v>28279</v>
       </c>
       <c r="B171" t="n">
-        <v>138677</v>
+        <v>169766</v>
       </c>
       <c r="C171" t="s">
         <v>1443</v>
@@ -21851,7 +21851,7 @@
         <v>28279</v>
       </c>
       <c r="B176" t="n">
-        <v>138678</v>
+        <v>169767</v>
       </c>
       <c r="C176" t="s">
         <v>1483</v>
@@ -21997,7 +21997,7 @@
         <v>28279</v>
       </c>
       <c r="B178" t="n">
-        <v>138679</v>
+        <v>169768</v>
       </c>
       <c r="C178" t="s">
         <v>1499</v>
@@ -22066,7 +22066,7 @@
         <v>28279</v>
       </c>
       <c r="B179" t="n">
-        <v>138680</v>
+        <v>169769</v>
       </c>
       <c r="C179" t="s">
         <v>1506</v>
@@ -22127,7 +22127,7 @@
         <v>28279</v>
       </c>
       <c r="B180" t="n">
-        <v>138681</v>
+        <v>169770</v>
       </c>
       <c r="C180" t="s">
         <v>1513</v>
@@ -22419,7 +22419,7 @@
         <v>28279</v>
       </c>
       <c r="B184" t="n">
-        <v>138682</v>
+        <v>169771</v>
       </c>
       <c r="C184" t="s">
         <v>1541</v>
@@ -22494,7 +22494,7 @@
         <v>28279</v>
       </c>
       <c r="B185" t="n">
-        <v>138683</v>
+        <v>169772</v>
       </c>
       <c r="C185" t="s">
         <v>1547</v>
@@ -22565,7 +22565,7 @@
         <v>28279</v>
       </c>
       <c r="B186" t="n">
-        <v>138684</v>
+        <v>169773</v>
       </c>
       <c r="C186" t="s">
         <v>1556</v>
@@ -22715,7 +22715,7 @@
         <v>28279</v>
       </c>
       <c r="B188" t="n">
-        <v>138685</v>
+        <v>169774</v>
       </c>
       <c r="C188" t="s">
         <v>1572</v>
@@ -22912,7 +22912,7 @@
         <v>28279</v>
       </c>
       <c r="B191" t="n">
-        <v>138686</v>
+        <v>169775</v>
       </c>
       <c r="C191" t="s">
         <v>1590</v>
@@ -22979,7 +22979,7 @@
         <v>28279</v>
       </c>
       <c r="B192" t="n">
-        <v>138687</v>
+        <v>169776</v>
       </c>
       <c r="C192" t="s">
         <v>1597</v>
@@ -23046,7 +23046,7 @@
         <v>28279</v>
       </c>
       <c r="B193" t="n">
-        <v>138688</v>
+        <v>169777</v>
       </c>
       <c r="C193" t="s">
         <v>1603</v>
@@ -23253,7 +23253,7 @@
         <v>28279</v>
       </c>
       <c r="B196" t="n">
-        <v>138689</v>
+        <v>169778</v>
       </c>
       <c r="C196" t="s">
         <v>1622</v>
@@ -23385,7 +23385,7 @@
         <v>28279</v>
       </c>
       <c r="B198" t="n">
-        <v>138690</v>
+        <v>169779</v>
       </c>
       <c r="C198" t="s">
         <v>1634</v>
@@ -23452,7 +23452,7 @@
         <v>28279</v>
       </c>
       <c r="B199" t="n">
-        <v>138691</v>
+        <v>169780</v>
       </c>
       <c r="C199" t="s">
         <v>1641</v>
@@ -23517,7 +23517,7 @@
         <v>28279</v>
       </c>
       <c r="B200" t="n">
-        <v>138692</v>
+        <v>169781</v>
       </c>
       <c r="C200" t="s">
         <v>1651</v>
@@ -23726,7 +23726,7 @@
         <v>28279</v>
       </c>
       <c r="B203" t="n">
-        <v>138693</v>
+        <v>169782</v>
       </c>
       <c r="C203" t="s">
         <v>1667</v>
@@ -23795,7 +23795,7 @@
         <v>28279</v>
       </c>
       <c r="B204" t="n">
-        <v>138694</v>
+        <v>169783</v>
       </c>
       <c r="C204" t="s">
         <v>1673</v>
@@ -23866,7 +23866,7 @@
         <v>28279</v>
       </c>
       <c r="B205" t="n">
-        <v>138695</v>
+        <v>169784</v>
       </c>
       <c r="C205" t="s">
         <v>1679</v>
@@ -24276,7 +24276,7 @@
         <v>28279</v>
       </c>
       <c r="B211" t="n">
-        <v>138696</v>
+        <v>169785</v>
       </c>
       <c r="C211" t="s">
         <v>1715</v>
@@ -24337,7 +24337,7 @@
         <v>28279</v>
       </c>
       <c r="B212" t="n">
-        <v>138697</v>
+        <v>169786</v>
       </c>
       <c r="C212" t="s">
         <v>1722</v>
@@ -24398,7 +24398,7 @@
         <v>28279</v>
       </c>
       <c r="B213" t="n">
-        <v>138698</v>
+        <v>169787</v>
       </c>
       <c r="C213" t="s">
         <v>1729</v>
@@ -24469,7 +24469,7 @@
         <v>28279</v>
       </c>
       <c r="B214" t="n">
-        <v>138699</v>
+        <v>169788</v>
       </c>
       <c r="C214" t="s">
         <v>1735</v>
@@ -24611,7 +24611,7 @@
         <v>28279</v>
       </c>
       <c r="B216" t="n">
-        <v>138700</v>
+        <v>169789</v>
       </c>
       <c r="C216" t="s">
         <v>1747</v>
@@ -24887,7 +24887,7 @@
         <v>28279</v>
       </c>
       <c r="B220" t="n">
-        <v>138701</v>
+        <v>169790</v>
       </c>
       <c r="C220" t="s">
         <v>1772</v>
@@ -25216,7 +25216,7 @@
         <v>28279</v>
       </c>
       <c r="B225" t="n">
-        <v>138702</v>
+        <v>169791</v>
       </c>
       <c r="C225" t="s">
         <v>1803</v>
@@ -25561,7 +25561,7 @@
         <v>28279</v>
       </c>
       <c r="B230" t="n">
-        <v>138703</v>
+        <v>169792</v>
       </c>
       <c r="C230" t="s">
         <v>1836</v>
@@ -25827,7 +25827,7 @@
         <v>28279</v>
       </c>
       <c r="B234" t="n">
-        <v>138704</v>
+        <v>169793</v>
       </c>
       <c r="C234" t="s">
         <v>1860</v>
@@ -26101,7 +26101,7 @@
         <v>28279</v>
       </c>
       <c r="B238" t="n">
-        <v>138705</v>
+        <v>169794</v>
       </c>
       <c r="C238" t="s">
         <v>1885</v>
@@ -26243,7 +26243,7 @@
         <v>28279</v>
       </c>
       <c r="B240" t="n">
-        <v>138706</v>
+        <v>169795</v>
       </c>
       <c r="C240" t="s">
         <v>1898</v>
@@ -26385,7 +26385,7 @@
         <v>28279</v>
       </c>
       <c r="B242" t="n">
-        <v>138707</v>
+        <v>169796</v>
       </c>
       <c r="C242" t="s">
         <v>1910</v>
@@ -26598,7 +26598,7 @@
         <v>28279</v>
       </c>
       <c r="B245" t="n">
-        <v>138637</v>
+        <v>138648</v>
       </c>
       <c r="C245" t="s">
         <v>915</v>
@@ -26669,7 +26669,7 @@
         <v>28279</v>
       </c>
       <c r="B246" t="n">
-        <v>138708</v>
+        <v>169797</v>
       </c>
       <c r="C246" t="s">
         <v>1934</v>
@@ -26740,7 +26740,7 @@
         <v>28279</v>
       </c>
       <c r="B247" t="n">
-        <v>138709</v>
+        <v>169798</v>
       </c>
       <c r="C247" t="s">
         <v>1939</v>
@@ -26805,7 +26805,7 @@
         <v>28279</v>
       </c>
       <c r="B248" t="n">
-        <v>138710</v>
+        <v>169799</v>
       </c>
       <c r="C248" t="s">
         <v>1945</v>
@@ -26937,7 +26937,7 @@
         <v>28279</v>
       </c>
       <c r="B250" t="n">
-        <v>138711</v>
+        <v>169800</v>
       </c>
       <c r="C250" t="s">
         <v>1957</v>
@@ -27079,7 +27079,7 @@
         <v>28279</v>
       </c>
       <c r="B252" t="n">
-        <v>138712</v>
+        <v>169801</v>
       </c>
       <c r="C252" t="s">
         <v>1969</v>
@@ -27150,7 +27150,7 @@
         <v>28279</v>
       </c>
       <c r="B253" t="n">
-        <v>138713</v>
+        <v>169802</v>
       </c>
       <c r="C253" t="s">
         <v>1974</v>
@@ -27292,7 +27292,7 @@
         <v>28279</v>
       </c>
       <c r="B255" t="n">
-        <v>138714</v>
+        <v>169803</v>
       </c>
       <c r="C255" t="s">
         <v>1985</v>
@@ -27363,7 +27363,7 @@
         <v>28279</v>
       </c>
       <c r="B256" t="n">
-        <v>138715</v>
+        <v>169804</v>
       </c>
       <c r="C256" t="s">
         <v>1991</v>
@@ -27509,7 +27509,7 @@
         <v>28279</v>
       </c>
       <c r="B258" t="n">
-        <v>138716</v>
+        <v>169805</v>
       </c>
       <c r="C258" t="s">
         <v>2006</v>
@@ -27793,7 +27793,7 @@
         <v>28279</v>
       </c>
       <c r="B262" t="n">
-        <v>138717</v>
+        <v>169806</v>
       </c>
       <c r="C262" t="s">
         <v>2028</v>
@@ -27864,7 +27864,7 @@
         <v>28279</v>
       </c>
       <c r="B263" t="n">
-        <v>138718</v>
+        <v>169807</v>
       </c>
       <c r="C263" t="s">
         <v>2034</v>
@@ -27935,7 +27935,7 @@
         <v>28279</v>
       </c>
       <c r="B264" t="n">
-        <v>138719</v>
+        <v>169808</v>
       </c>
       <c r="C264" t="s">
         <v>2040</v>
@@ -28006,7 +28006,7 @@
         <v>28279</v>
       </c>
       <c r="B265" t="n">
-        <v>138720</v>
+        <v>169809</v>
       </c>
       <c r="C265" t="s">
         <v>2046</v>
@@ -28142,7 +28142,7 @@
         <v>28279</v>
       </c>
       <c r="B267" t="n">
-        <v>138721</v>
+        <v>169810</v>
       </c>
       <c r="C267" t="s">
         <v>2057</v>
@@ -28355,7 +28355,7 @@
         <v>28279</v>
       </c>
       <c r="B270" t="n">
-        <v>138722</v>
+        <v>169811</v>
       </c>
       <c r="C270" t="s">
         <v>2077</v>
@@ -28495,7 +28495,7 @@
         <v>28279</v>
       </c>
       <c r="B272" t="n">
-        <v>138723</v>
+        <v>169812</v>
       </c>
       <c r="C272" t="s">
         <v>2089</v>
@@ -28637,7 +28637,7 @@
         <v>28279</v>
       </c>
       <c r="B274" t="n">
-        <v>138724</v>
+        <v>169813</v>
       </c>
       <c r="C274" t="s">
         <v>2101</v>
@@ -28708,7 +28708,7 @@
         <v>28279</v>
       </c>
       <c r="B275" t="n">
-        <v>138725</v>
+        <v>169814</v>
       </c>
       <c r="C275" t="s">
         <v>2107</v>
@@ -28850,7 +28850,7 @@
         <v>28279</v>
       </c>
       <c r="B277" t="n">
-        <v>138726</v>
+        <v>169815</v>
       </c>
       <c r="C277" t="s">
         <v>2121</v>
@@ -28921,7 +28921,7 @@
         <v>28279</v>
       </c>
       <c r="B278" t="n">
-        <v>138727</v>
+        <v>140185</v>
       </c>
       <c r="C278" t="s">
         <v>2127</v>
@@ -29063,7 +29063,7 @@
         <v>28279</v>
       </c>
       <c r="B280" t="n">
-        <v>138728</v>
+        <v>169816</v>
       </c>
       <c r="C280" t="s">
         <v>2140</v>
@@ -29560,7 +29560,7 @@
         <v>28279</v>
       </c>
       <c r="B287" t="n">
-        <v>138729</v>
+        <v>169817</v>
       </c>
       <c r="C287" t="s">
         <v>2177</v>
@@ -29702,7 +29702,7 @@
         <v>28279</v>
       </c>
       <c r="B289" t="n">
-        <v>138730</v>
+        <v>169818</v>
       </c>
       <c r="C289" t="s">
         <v>2188</v>
@@ -29915,7 +29915,7 @@
         <v>28279</v>
       </c>
       <c r="B292" t="n">
-        <v>138731</v>
+        <v>169819</v>
       </c>
       <c r="C292" t="s">
         <v>2206</v>
@@ -29986,7 +29986,7 @@
         <v>28279</v>
       </c>
       <c r="B293" t="n">
-        <v>138732</v>
+        <v>169820</v>
       </c>
       <c r="C293" t="s">
         <v>2211</v>
@@ -30128,7 +30128,7 @@
         <v>28279</v>
       </c>
       <c r="B295" t="n">
-        <v>138733</v>
+        <v>169821</v>
       </c>
       <c r="C295" t="s">
         <v>2224</v>
@@ -30260,7 +30260,7 @@
         <v>28279</v>
       </c>
       <c r="B297" t="n">
-        <v>138734</v>
+        <v>169822</v>
       </c>
       <c r="C297" t="s">
         <v>2236</v>
@@ -30331,7 +30331,7 @@
         <v>28279</v>
       </c>
       <c r="B298" t="n">
-        <v>138735</v>
+        <v>169823</v>
       </c>
       <c r="C298" t="s">
         <v>2241</v>
@@ -30544,7 +30544,7 @@
         <v>28279</v>
       </c>
       <c r="B301" t="n">
-        <v>138736</v>
+        <v>169824</v>
       </c>
       <c r="C301" t="s">
         <v>2258</v>
@@ -30615,7 +30615,7 @@
         <v>28279</v>
       </c>
       <c r="B302" t="n">
-        <v>138656</v>
+        <v>138676</v>
       </c>
       <c r="C302" t="s">
         <v>1134</v>
@@ -30897,7 +30897,7 @@
         <v>28279</v>
       </c>
       <c r="B306" t="n">
-        <v>138737</v>
+        <v>169825</v>
       </c>
       <c r="C306" t="s">
         <v>2287</v>
@@ -30968,7 +30968,7 @@
         <v>28279</v>
       </c>
       <c r="B307" t="n">
-        <v>138738</v>
+        <v>169826</v>
       </c>
       <c r="C307" t="s">
         <v>2293</v>
@@ -31039,7 +31039,7 @@
         <v>28279</v>
       </c>
       <c r="B308" t="n">
-        <v>138739</v>
+        <v>169827</v>
       </c>
       <c r="C308" t="s">
         <v>2298</v>
@@ -31110,7 +31110,7 @@
         <v>28279</v>
       </c>
       <c r="B309" t="n">
-        <v>138740</v>
+        <v>169828</v>
       </c>
       <c r="C309" t="s">
         <v>2305</v>
@@ -31394,7 +31394,7 @@
         <v>28279</v>
       </c>
       <c r="B313" t="n">
-        <v>138741</v>
+        <v>169829</v>
       </c>
       <c r="C313" t="s">
         <v>2329</v>
@@ -31465,7 +31465,7 @@
         <v>28279</v>
       </c>
       <c r="B314" t="n">
-        <v>138742</v>
+        <v>169830</v>
       </c>
       <c r="C314" t="s">
         <v>2335</v>
@@ -31678,7 +31678,7 @@
         <v>28279</v>
       </c>
       <c r="B317" t="n">
-        <v>138743</v>
+        <v>169831</v>
       </c>
       <c r="C317" t="s">
         <v>2353</v>
@@ -31749,7 +31749,7 @@
         <v>28279</v>
       </c>
       <c r="B318" t="n">
-        <v>138744</v>
+        <v>169832</v>
       </c>
       <c r="C318" t="s">
         <v>2361</v>
@@ -31820,7 +31820,7 @@
         <v>28279</v>
       </c>
       <c r="B319" t="n">
-        <v>138745</v>
+        <v>169833</v>
       </c>
       <c r="C319" t="s">
         <v>2367</v>
@@ -31891,7 +31891,7 @@
         <v>28279</v>
       </c>
       <c r="B320" t="n">
-        <v>138746</v>
+        <v>169834</v>
       </c>
       <c r="C320" t="s">
         <v>2372</v>
@@ -31962,7 +31962,7 @@
         <v>28279</v>
       </c>
       <c r="B321" t="n">
-        <v>138747</v>
+        <v>169835</v>
       </c>
       <c r="C321" t="s">
         <v>2378</v>
@@ -32175,7 +32175,7 @@
         <v>28279</v>
       </c>
       <c r="B324" t="n">
-        <v>138748</v>
+        <v>169836</v>
       </c>
       <c r="C324" t="s">
         <v>2397</v>
@@ -32246,7 +32246,7 @@
         <v>28279</v>
       </c>
       <c r="B325" t="n">
-        <v>138749</v>
+        <v>169837</v>
       </c>
       <c r="C325" t="s">
         <v>2403</v>
@@ -32380,7 +32380,7 @@
         <v>28279</v>
       </c>
       <c r="B327" t="n">
-        <v>138750</v>
+        <v>169838</v>
       </c>
       <c r="C327" t="s">
         <v>2417</v>
@@ -32512,7 +32512,7 @@
         <v>28279</v>
       </c>
       <c r="B329" t="n">
-        <v>138751</v>
+        <v>169839</v>
       </c>
       <c r="C329" t="s">
         <v>2430</v>
@@ -32654,7 +32654,7 @@
         <v>28279</v>
       </c>
       <c r="B331" t="n">
-        <v>138752</v>
+        <v>169840</v>
       </c>
       <c r="C331" t="s">
         <v>2445</v>
@@ -32867,7 +32867,7 @@
         <v>28279</v>
       </c>
       <c r="B334" t="n">
-        <v>138753</v>
+        <v>169841</v>
       </c>
       <c r="C334" t="s">
         <v>2463</v>
@@ -32938,7 +32938,7 @@
         <v>28279</v>
       </c>
       <c r="B335" t="n">
-        <v>138754</v>
+        <v>169842</v>
       </c>
       <c r="C335" t="s">
         <v>2468</v>
@@ -33009,7 +33009,7 @@
         <v>28279</v>
       </c>
       <c r="B336" t="n">
-        <v>138755</v>
+        <v>169843</v>
       </c>
       <c r="C336" t="s">
         <v>2475</v>
@@ -33151,7 +33151,7 @@
         <v>28279</v>
       </c>
       <c r="B338" t="n">
-        <v>138756</v>
+        <v>169844</v>
       </c>
       <c r="C338" t="s">
         <v>2489</v>
@@ -33212,7 +33212,7 @@
         <v>28279</v>
       </c>
       <c r="B339" t="n">
-        <v>138757</v>
+        <v>169845</v>
       </c>
       <c r="C339" t="s">
         <v>2496</v>
@@ -33283,7 +33283,7 @@
         <v>28279</v>
       </c>
       <c r="B340" t="n">
-        <v>138758</v>
+        <v>169846</v>
       </c>
       <c r="C340" t="s">
         <v>2502</v>
@@ -33350,7 +33350,7 @@
         <v>28279</v>
       </c>
       <c r="B341" t="n">
-        <v>138759</v>
+        <v>169847</v>
       </c>
       <c r="C341" t="s">
         <v>2509</v>
@@ -33421,7 +33421,7 @@
         <v>28279</v>
       </c>
       <c r="B342" t="n">
-        <v>138760</v>
+        <v>169848</v>
       </c>
       <c r="C342" t="s">
         <v>2517</v>
@@ -33563,7 +33563,7 @@
         <v>28279</v>
       </c>
       <c r="B344" t="n">
-        <v>138761</v>
+        <v>169849</v>
       </c>
       <c r="C344" t="s">
         <v>2531</v>
@@ -33634,7 +33634,7 @@
         <v>28279</v>
       </c>
       <c r="B345" t="n">
-        <v>138762</v>
+        <v>169850</v>
       </c>
       <c r="C345" t="s">
         <v>2539</v>
@@ -33705,7 +33705,7 @@
         <v>28279</v>
       </c>
       <c r="B346" t="n">
-        <v>138763</v>
+        <v>169851</v>
       </c>
       <c r="C346" t="s">
         <v>2545</v>
@@ -33776,7 +33776,7 @@
         <v>28279</v>
       </c>
       <c r="B347" t="n">
-        <v>138764</v>
+        <v>169852</v>
       </c>
       <c r="C347" t="s">
         <v>2551</v>
@@ -33918,7 +33918,7 @@
         <v>28279</v>
       </c>
       <c r="B349" t="n">
-        <v>138765</v>
+        <v>169853</v>
       </c>
       <c r="C349" t="s">
         <v>2564</v>
@@ -33989,7 +33989,7 @@
         <v>28279</v>
       </c>
       <c r="B350" t="n">
-        <v>138766</v>
+        <v>169854</v>
       </c>
       <c r="C350" t="s">
         <v>2570</v>
@@ -34060,7 +34060,7 @@
         <v>28279</v>
       </c>
       <c r="B351" t="n">
-        <v>138767</v>
+        <v>169855</v>
       </c>
       <c r="C351" t="s">
         <v>2578</v>
@@ -34125,7 +34125,7 @@
         <v>28279</v>
       </c>
       <c r="B352" t="n">
-        <v>138768</v>
+        <v>169856</v>
       </c>
       <c r="C352" t="s">
         <v>2584</v>
@@ -34196,7 +34196,7 @@
         <v>28279</v>
       </c>
       <c r="B353" t="n">
-        <v>138769</v>
+        <v>169857</v>
       </c>
       <c r="C353" t="s">
         <v>2591</v>
@@ -34267,7 +34267,7 @@
         <v>28279</v>
       </c>
       <c r="B354" t="n">
-        <v>138770</v>
+        <v>169858</v>
       </c>
       <c r="C354" t="s">
         <v>2597</v>
@@ -34338,7 +34338,7 @@
         <v>28279</v>
       </c>
       <c r="B355" t="n">
-        <v>138771</v>
+        <v>169859</v>
       </c>
       <c r="C355" t="s">
         <v>2604</v>
@@ -34409,7 +34409,7 @@
         <v>28279</v>
       </c>
       <c r="B356" t="n">
-        <v>138772</v>
+        <v>169860</v>
       </c>
       <c r="C356" t="s">
         <v>2609</v>
@@ -34551,7 +34551,7 @@
         <v>28279</v>
       </c>
       <c r="B358" t="n">
-        <v>138773</v>
+        <v>169861</v>
       </c>
       <c r="C358" t="s">
         <v>2622</v>
@@ -34622,7 +34622,7 @@
         <v>28279</v>
       </c>
       <c r="B359" t="n">
-        <v>138774</v>
+        <v>169862</v>
       </c>
       <c r="C359" t="s">
         <v>2629</v>
@@ -34689,7 +34689,7 @@
         <v>28279</v>
       </c>
       <c r="B360" t="n">
-        <v>138775</v>
+        <v>169863</v>
       </c>
       <c r="C360" t="s">
         <v>2637</v>
@@ -34756,7 +34756,7 @@
         <v>28279</v>
       </c>
       <c r="B361" t="n">
-        <v>138776</v>
+        <v>169864</v>
       </c>
       <c r="C361" t="s">
         <v>2643</v>
@@ -34823,7 +34823,7 @@
         <v>28279</v>
       </c>
       <c r="B362" t="n">
-        <v>138777</v>
+        <v>169865</v>
       </c>
       <c r="C362" t="s">
         <v>2650</v>
@@ -34894,7 +34894,7 @@
         <v>28279</v>
       </c>
       <c r="B363" t="n">
-        <v>138778</v>
+        <v>169866</v>
       </c>
       <c r="C363" t="s">
         <v>2657</v>
@@ -34965,7 +34965,7 @@
         <v>28279</v>
       </c>
       <c r="B364" t="n">
-        <v>138779</v>
+        <v>169867</v>
       </c>
       <c r="C364" t="s">
         <v>2664</v>
@@ -35036,7 +35036,7 @@
         <v>28279</v>
       </c>
       <c r="B365" t="n">
-        <v>138780</v>
+        <v>169868</v>
       </c>
       <c r="C365" t="s">
         <v>2671</v>
@@ -35107,7 +35107,7 @@
         <v>28279</v>
       </c>
       <c r="B366" t="n">
-        <v>138781</v>
+        <v>169869</v>
       </c>
       <c r="C366" t="s">
         <v>2678</v>
@@ -35172,7 +35172,7 @@
         <v>28279</v>
       </c>
       <c r="B367" t="n">
-        <v>138782</v>
+        <v>169870</v>
       </c>
       <c r="C367" t="s">
         <v>2688</v>
@@ -35243,7 +35243,7 @@
         <v>28279</v>
       </c>
       <c r="B368" t="n">
-        <v>138783</v>
+        <v>169871</v>
       </c>
       <c r="C368" t="s">
         <v>2696</v>
@@ -35316,7 +35316,7 @@
         <v>28279</v>
       </c>
       <c r="B369" t="n">
-        <v>138784</v>
+        <v>169872</v>
       </c>
       <c r="C369" t="s">
         <v>2706</v>
@@ -35391,7 +35391,7 @@
         <v>28279</v>
       </c>
       <c r="B370" t="n">
-        <v>138785</v>
+        <v>169873</v>
       </c>
       <c r="C370" t="s">
         <v>2714</v>
@@ -35466,7 +35466,7 @@
         <v>28279</v>
       </c>
       <c r="B371" t="n">
-        <v>138786</v>
+        <v>169874</v>
       </c>
       <c r="C371" t="s">
         <v>2722</v>
@@ -35537,7 +35537,7 @@
         <v>28279</v>
       </c>
       <c r="B372" t="n">
-        <v>138787</v>
+        <v>169875</v>
       </c>
       <c r="C372" t="s">
         <v>2731</v>
@@ -35679,7 +35679,7 @@
         <v>28279</v>
       </c>
       <c r="B374" t="n">
-        <v>138788</v>
+        <v>169876</v>
       </c>
       <c r="C374" t="s">
         <v>2747</v>
@@ -35750,7 +35750,7 @@
         <v>28279</v>
       </c>
       <c r="B375" t="n">
-        <v>138789</v>
+        <v>169877</v>
       </c>
       <c r="C375" t="s">
         <v>2755</v>
@@ -35821,7 +35821,7 @@
         <v>28279</v>
       </c>
       <c r="B376" t="n">
-        <v>138790</v>
+        <v>169878</v>
       </c>
       <c r="C376" t="s">
         <v>2762</v>
@@ -35892,7 +35892,7 @@
         <v>28279</v>
       </c>
       <c r="B377" t="n">
-        <v>138791</v>
+        <v>169879</v>
       </c>
       <c r="C377" t="s">
         <v>2770</v>
@@ -36016,7 +36016,7 @@
         <v>28279</v>
       </c>
       <c r="B379" t="n">
-        <v>138792</v>
+        <v>169880</v>
       </c>
       <c r="C379" t="s">
         <v>2783</v>
@@ -36073,7 +36073,7 @@
         <v>28279</v>
       </c>
       <c r="B380" t="n">
-        <v>138793</v>
+        <v>169881</v>
       </c>
       <c r="C380" t="s">
         <v>2789</v>
@@ -36138,7 +36138,7 @@
         <v>28279</v>
       </c>
       <c r="B381" t="n">
-        <v>138794</v>
+        <v>169882</v>
       </c>
       <c r="C381" t="s">
         <v>2796</v>
@@ -36207,7 +36207,7 @@
         <v>28279</v>
       </c>
       <c r="B382" t="n">
-        <v>138795</v>
+        <v>169883</v>
       </c>
       <c r="C382" t="s">
         <v>2804</v>
